--- a/Income/SWK_inc.xlsx
+++ b/Income/SWK_inc.xlsx
@@ -2349,16 +2349,16 @@
         <v>0.3425</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.3326</v>
+        <v>0.3302</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.3278</v>
+        <v>0.3254</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.3311</v>
+        <v>0.3288</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.335</v>
+        <v>0.3327</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.3345</v>
@@ -2603,16 +2603,16 @@
         <v>0.0872</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.0697</v>
+        <v>0.0696</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0.0579</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.076</v>
+        <v>0.0759</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.0783</v>
+        <v>0.0782</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.0741</v>
@@ -4394,16 +4394,16 @@
         <v>0.1818</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.1754</v>
+        <v>0.16</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.1544</v>
+        <v>0.1387</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.1521</v>
+        <v>0.1371</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.149</v>
+        <v>0.1342</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0.1283</v>
